--- a/target/test-classes/Data/TestData.xlsx
+++ b/target/test-classes/Data/TestData.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
